--- a/biology/Zoologie/Hottentotta_socotrensis/Hottentotta_socotrensis.xlsx
+++ b/biology/Zoologie/Hottentotta_socotrensis/Hottentotta_socotrensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta socotrensis est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Socotra au Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Socotra au Yémen.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle syntype mesure 76 mm[2].
-Hottentotta socotrensis mesure de 60 à 80 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle syntype mesure 76 mm.
+Hottentotta socotrensis mesure de 60 à 80 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus socotrensis par Pocock en 1895. Elle est placée dans le genre Buthotus par Probst en 1973[4] puis dans le genre Hottentotta par Francke en 1985[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus socotrensis par Pocock en 1895. Elle est placée dans le genre Buthotus par Probst en 1973 puis dans le genre Hottentotta par Francke en 1985.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de socotr[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Socotra.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pocock, 1889 : « Notes on some Buthidae, new and old. » Annals and Magazine of Natural History, sér. 6, vol. 3, p. 334–351 (texte intégral).</t>
         </is>
